--- a/end/Dormitory/宿舍导入模板.xlsx
+++ b/end/Dormitory/宿舍导入模板.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\shandong\aqschool\end\Dormitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F78D51-31C0-4A9B-A54A-DEE505945173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AED894-2C6A-4CE4-9C3F-115F3509BCF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="4695" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,12 +42,15 @@
     <t>房间名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>严格按照系统上存入的数据名称来填写</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,16 +101,28 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -121,11 +130,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -163,6 +187,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -446,7 +473,7 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -521,50 +548,52 @@
       <c r="I3" s="2"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:17" ht="16.5">
+    <row r="4" spans="1:17" ht="25.5" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="12"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="E4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:17" ht="16.5">
+    <row r="5" spans="1:17" ht="25.5" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="12"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" ht="16.5">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:17" ht="25.5" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="12"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" ht="16.5">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:17" ht="25.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="13"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:17" ht="16.5">
       <c r="A8" s="6"/>
@@ -1084,6 +1113,9 @@
       <c r="I54" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E4:I7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576" xr:uid="{70C6A24E-EAF5-436B-B996-7B4C8F5B75BE}">

--- a/end/Dormitory/宿舍导入模板.xlsx
+++ b/end/Dormitory/宿舍导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\shandong\aqschool\end\Dormitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AED894-2C6A-4CE4-9C3F-115F3509BCF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5C122D-730A-4A53-A043-2BE7866A70DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,9 +41,6 @@
   <si>
     <t>房间名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严格按照系统上存入的数据名称来填写</t>
   </si>
 </sst>
 </file>
@@ -108,41 +105,20 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -187,8 +163,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,7 +449,7 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -553,9 +529,7 @@
       <c r="B4" s="12"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="15" t="s">
-        <v>4</v>
-      </c>
+      <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -1113,9 +1087,6 @@
       <c r="I54" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E4:I7"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576" xr:uid="{70C6A24E-EAF5-436B-B996-7B4C8F5B75BE}">
